--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/25.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/25.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2538887277718271</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.594830687982365</v>
+        <v>-1.59999110967155</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1566756164457487</v>
+        <v>0.1517804169785036</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2466006745844579</v>
+        <v>-0.2452485921592606</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2734228335625278</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.524457080078572</v>
+        <v>-1.532407450660262</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1033132201954128</v>
+        <v>0.1003635083620953</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2499675014849201</v>
+        <v>-0.2486044009258737</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2975885029309197</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.475826185306866</v>
+        <v>-1.487674614242457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09856125646820604</v>
+        <v>0.09610263860073437</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2598303052989901</v>
+        <v>-0.2584971111032485</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3098056962049809</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.545613471087975</v>
+        <v>-1.557133717036775</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1243751700575373</v>
+        <v>0.1230577160530087</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2355668005441401</v>
+        <v>-0.235472359396862</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.308208697718736</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.582257423241415</v>
+        <v>-1.591530756894558</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1073741895283686</v>
+        <v>0.1080431476549214</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.261525523892631</v>
+        <v>-0.2612469225081608</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2999334603158916</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.469889772190881</v>
+        <v>-1.478298182336869</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1185717615573017</v>
+        <v>0.1211311166485366</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2531800745114948</v>
+        <v>-0.2530651711156398</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2960435314478583</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.258530484582624</v>
+        <v>-1.263612205315743</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1528727862486863</v>
+        <v>0.1577994660983574</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2595343897041856</v>
+        <v>-0.2591314408091326</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2994606766464866</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.005248771697645</v>
+        <v>-1.006219941495488</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1727274634447732</v>
+        <v>0.179516207914943</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2571434546589299</v>
+        <v>-0.2564178318440103</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3066395803094896</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5949137919179658</v>
+        <v>-0.593553839397162</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1606956612815507</v>
+        <v>0.1684429833965927</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1641456829151214</v>
+        <v>-0.1647674204680351</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.315555391075599</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2249358753988752</v>
+        <v>-0.2204247365972274</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1308554067799323</v>
+        <v>0.1383162574148975</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1291615339250923</v>
+        <v>-0.1289710776114149</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.3258269741834469</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2348351099330557</v>
+        <v>0.2408006424027853</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09857857067854035</v>
+        <v>0.1032990540233211</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03876718980791506</v>
+        <v>-0.03877663392264287</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.3319950330267779</v>
       </c>
       <c r="E13" t="n">
-        <v>0.755739423917184</v>
+        <v>0.7653991792646063</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.006797287435176795</v>
+        <v>-0.005635661323656887</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05470750972964758</v>
+        <v>0.05503175766863552</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.3244194162200907</v>
       </c>
       <c r="E14" t="n">
-        <v>1.298555658088939</v>
+        <v>1.310252194179325</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2328280072730769</v>
+        <v>-0.2299821807017652</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1581237140373454</v>
+        <v>0.1590067387643951</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.2960256382159584</v>
       </c>
       <c r="E15" t="n">
-        <v>1.859578571436779</v>
+        <v>1.87171740690025</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4444454340172265</v>
+        <v>-0.4416672902681308</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2917610854740164</v>
+        <v>0.2926299440289744</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.2461137568591297</v>
       </c>
       <c r="E16" t="n">
-        <v>2.329383928667002</v>
+        <v>2.343580007122013</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6672195082931555</v>
+        <v>-0.666180655673097</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4362906692300881</v>
+        <v>0.4369249989359723</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.176693271636132</v>
       </c>
       <c r="E17" t="n">
-        <v>2.782736064022269</v>
+        <v>2.798743838485897</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8776398934955559</v>
+        <v>-0.879438210341642</v>
       </c>
       <c r="G17" t="n">
-        <v>0.554359417537974</v>
+        <v>0.555950750869609</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.09696687228026526</v>
       </c>
       <c r="E18" t="n">
-        <v>3.206416364921896</v>
+        <v>3.221865362597462</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.20571505997694</v>
+        <v>-1.207540922157649</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6754219502145739</v>
+        <v>0.6773784559823506</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.01785294133784562</v>
       </c>
       <c r="E19" t="n">
-        <v>3.581114764785768</v>
+        <v>3.596198590025192</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.5026600632868</v>
+        <v>-1.506547890516413</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8366251185225837</v>
+        <v>0.8383895939575619</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.05913974957468882</v>
       </c>
       <c r="E20" t="n">
-        <v>3.701259644314649</v>
+        <v>3.720832572088023</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.838776106449349</v>
+        <v>-1.842380610237128</v>
       </c>
       <c r="G20" t="n">
-        <v>1.013085254173361</v>
+        <v>1.014607330663659</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.1394561330894049</v>
       </c>
       <c r="E21" t="n">
-        <v>3.951342950345145</v>
+        <v>3.97081986295212</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.074324919913754</v>
+        <v>-2.078958832206864</v>
       </c>
       <c r="G21" t="n">
-        <v>1.181319565896221</v>
+        <v>1.182433971434102</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.2275901698051999</v>
       </c>
       <c r="E22" t="n">
-        <v>4.155660076404702</v>
+        <v>4.175763448621955</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.372648763973874</v>
+        <v>-2.374783920911918</v>
       </c>
       <c r="G22" t="n">
-        <v>1.32124671774161</v>
+        <v>1.32267435308463</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.3228652404832779</v>
       </c>
       <c r="E23" t="n">
-        <v>4.382392808770702</v>
+        <v>4.401000862822719</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.503681133764792</v>
+        <v>-2.506759915166056</v>
       </c>
       <c r="G23" t="n">
-        <v>1.493279137604169</v>
+        <v>1.493804859990683</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.4208316591844487</v>
       </c>
       <c r="E24" t="n">
-        <v>4.51058092600943</v>
+        <v>4.528786031166394</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.61855698428512</v>
+        <v>-2.621538176500863</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59715967755265</v>
+        <v>1.597715306302469</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.5153295505886585</v>
       </c>
       <c r="E25" t="n">
-        <v>4.653856016525825</v>
+        <v>4.669953510079368</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817471289710812</v>
+        <v>-2.817767205305616</v>
       </c>
       <c r="G25" t="n">
-        <v>1.660388025655299</v>
+        <v>1.660909025984449</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6008213775524428</v>
       </c>
       <c r="E26" t="n">
-        <v>4.769508645482515</v>
+        <v>4.783410382361843</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907634253017158</v>
+        <v>-2.907727120145315</v>
       </c>
       <c r="G26" t="n">
-        <v>1.704285844929254</v>
+        <v>1.704067056271393</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.6724384170600538</v>
       </c>
       <c r="E27" t="n">
-        <v>4.883894189046557</v>
+        <v>4.893810509510751</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.981984620230917</v>
+        <v>-2.980453099625892</v>
       </c>
       <c r="G27" t="n">
-        <v>1.755550073690896</v>
+        <v>1.754495480879624</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7276224973899801</v>
       </c>
       <c r="E28" t="n">
-        <v>4.884279823731275</v>
+        <v>4.893292657219844</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.072811819606452</v>
+        <v>-3.069674012488139</v>
       </c>
       <c r="G28" t="n">
-        <v>1.797576384229624</v>
+        <v>1.795582102002936</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7656605873650956</v>
       </c>
       <c r="E29" t="n">
-        <v>4.895076020884277</v>
+        <v>4.902215771618497</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.087582415040738</v>
+        <v>-3.083456123914248</v>
       </c>
       <c r="G29" t="n">
-        <v>1.727815856773578</v>
+        <v>1.726767560038791</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7871993138311077</v>
       </c>
       <c r="E30" t="n">
-        <v>4.836686207560507</v>
+        <v>4.843866882791881</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.077932890817604</v>
+        <v>-3.073262776084705</v>
       </c>
       <c r="G30" t="n">
-        <v>1.692033680089049</v>
+        <v>1.690615488860757</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7941899424198683</v>
       </c>
       <c r="E31" t="n">
-        <v>4.712527579272309</v>
+        <v>4.718574960736346</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.068224340877421</v>
+        <v>-3.06190544111496</v>
       </c>
       <c r="G31" t="n">
-        <v>1.633376283514658</v>
+        <v>1.63186679917733</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7893852346242803</v>
       </c>
       <c r="E32" t="n">
-        <v>4.634013931482709</v>
+        <v>4.638203970383612</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.029639623147417</v>
+        <v>-3.023052353124774</v>
       </c>
       <c r="G32" t="n">
-        <v>1.596474979234884</v>
+        <v>1.594334313229915</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.77581720139138</v>
       </c>
       <c r="E33" t="n">
-        <v>4.559759579435349</v>
+        <v>4.560272709668893</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.96091952233055</v>
+        <v>-2.953975736976932</v>
       </c>
       <c r="G33" t="n">
-        <v>1.568943810784214</v>
+        <v>1.565125240395939</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7560139680457886</v>
       </c>
       <c r="E34" t="n">
-        <v>4.355979193896156</v>
+        <v>4.357698022776616</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.889809273477988</v>
+        <v>-2.881851819810253</v>
       </c>
       <c r="G34" t="n">
-        <v>1.51949285205031</v>
+        <v>1.514791256934985</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7322093673193186</v>
       </c>
       <c r="E35" t="n">
-        <v>4.131941182265822</v>
+        <v>4.132923370197513</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.85935200348082</v>
+        <v>-2.850223479586837</v>
       </c>
       <c r="G35" t="n">
-        <v>1.397690530386699</v>
+        <v>1.393675207608261</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7049517916472023</v>
       </c>
       <c r="E36" t="n">
-        <v>3.982525843157233</v>
+        <v>3.981833274743861</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.834864988010745</v>
+        <v>-2.825026581493055</v>
       </c>
       <c r="G36" t="n">
-        <v>1.372471596025219</v>
+        <v>1.367297795173504</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6738416569904029</v>
       </c>
       <c r="E37" t="n">
-        <v>3.787821251871459</v>
+        <v>3.78593400294502</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.771113278550264</v>
+        <v>-2.761249687726633</v>
       </c>
       <c r="G37" t="n">
-        <v>1.284701141783251</v>
+        <v>1.28018685494336</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6379847443345247</v>
       </c>
       <c r="E38" t="n">
-        <v>3.721232372944834</v>
+        <v>3.716241158311189</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.74116913878664</v>
+        <v>-2.73006049883806</v>
       </c>
       <c r="G38" t="n">
-        <v>1.242961302724599</v>
+        <v>1.237096507478633</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5969544485560377</v>
       </c>
       <c r="E39" t="n">
-        <v>3.512363183586475</v>
+        <v>3.506098587483698</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.759703213939956</v>
+        <v>-2.747532111084498</v>
       </c>
       <c r="G39" t="n">
-        <v>1.167663375999817</v>
+        <v>1.161864689556945</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.551906688203776</v>
       </c>
       <c r="E40" t="n">
-        <v>3.266743795783988</v>
+        <v>3.260252540927744</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.725986150342573</v>
+        <v>-2.712808462259044</v>
       </c>
       <c r="G40" t="n">
-        <v>1.103556725227482</v>
+        <v>1.097736002516912</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5045480941031237</v>
       </c>
       <c r="E41" t="n">
-        <v>3.095622732992662</v>
+        <v>3.088264193600581</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.664726113151112</v>
+        <v>-2.652034009966503</v>
       </c>
       <c r="G41" t="n">
-        <v>1.072014956055738</v>
+        <v>1.065794432488357</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4564624044630456</v>
       </c>
       <c r="E42" t="n">
-        <v>2.98463707073063</v>
+        <v>2.974330393524352</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.634331016909234</v>
+        <v>-2.621167494997797</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9874728150315565</v>
+        <v>0.981659962416593</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4084490115985014</v>
       </c>
       <c r="E43" t="n">
-        <v>2.853066386400226</v>
+        <v>2.840962179357424</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.618539670074785</v>
+        <v>-2.604389238174292</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9352626007780126</v>
+        <v>0.9295567814632977</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3604685149755895</v>
       </c>
       <c r="E44" t="n">
-        <v>2.726282294217699</v>
+        <v>2.712260931885152</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.546012804013053</v>
+        <v>-2.532635215501118</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8717808355968346</v>
+        <v>0.865495777245481</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3119158243639237</v>
       </c>
       <c r="E45" t="n">
-        <v>2.529773877018914</v>
+        <v>2.51567066569206</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.480233757924336</v>
+        <v>-2.467227637925029</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8421829800398964</v>
+        <v>0.8354965468126112</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2619579664791638</v>
       </c>
       <c r="E46" t="n">
-        <v>2.405135172898719</v>
+        <v>2.389782190389552</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.44202208272608</v>
+        <v>-2.427727628075988</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7787925079677539</v>
+        <v>0.7721847756965335</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2092944137251344</v>
       </c>
       <c r="E47" t="n">
-        <v>2.241951888536113</v>
+        <v>2.226696495212467</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.304833724151755</v>
+        <v>-2.292553226967367</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7224709557693727</v>
+        <v>0.7158474833069394</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1534780692767488</v>
       </c>
       <c r="E48" t="n">
-        <v>2.155657864229924</v>
+        <v>2.138745028771548</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.265427368440432</v>
+        <v>-2.251681459454113</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6739581124317642</v>
+        <v>0.6671426096365322</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.09534548049888518</v>
       </c>
       <c r="E49" t="n">
-        <v>2.003014211903547</v>
+        <v>1.985492231045228</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.213695655999763</v>
+        <v>-2.199791558091754</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5998517181818065</v>
+        <v>0.5927434478300125</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.03490191168005882</v>
       </c>
       <c r="E50" t="n">
-        <v>1.909895240687399</v>
+        <v>1.892214283897828</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.166291709133111</v>
+        <v>-2.152364000938282</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5428124132641121</v>
+        <v>0.5360346869277914</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.02725869622265494</v>
       </c>
       <c r="E51" t="n">
-        <v>1.785738186418321</v>
+        <v>1.76826185211452</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.116622748750907</v>
+        <v>-2.102348756349392</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4977624119933652</v>
+        <v>0.491019314077713</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.08988554490108716</v>
       </c>
       <c r="E52" t="n">
-        <v>1.67361608235071</v>
+        <v>1.656563159190538</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.996005663485635</v>
+        <v>-1.984208390171487</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4622336523873661</v>
+        <v>0.4554244456686193</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1515768253968752</v>
       </c>
       <c r="E53" t="n">
-        <v>1.632145400561801</v>
+        <v>1.613305965698953</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.936480982375407</v>
+        <v>-1.924660098774439</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3899641384519663</v>
+        <v>0.3841827662194289</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2116178685787492</v>
       </c>
       <c r="E54" t="n">
-        <v>1.591104425993006</v>
+        <v>1.570025161920547</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.926796829731605</v>
+        <v>-1.914269211545173</v>
       </c>
       <c r="G54" t="n">
-        <v>0.35564894758849</v>
+        <v>0.3498534091838609</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2700423890226326</v>
       </c>
       <c r="E55" t="n">
-        <v>1.537408337688955</v>
+        <v>1.51505097009</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.86086195574988</v>
+        <v>-1.849197687051481</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3291676498917272</v>
+        <v>0.3229392562287404</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3257994790535692</v>
       </c>
       <c r="E56" t="n">
-        <v>1.480822350278195</v>
+        <v>1.45719474924835</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.797851609295531</v>
+        <v>-1.787366280918987</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2195293479975278</v>
+        <v>0.215499859046998</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3775911875289958</v>
       </c>
       <c r="E57" t="n">
-        <v>1.492174176181015</v>
+        <v>1.466922187417989</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.795435489944335</v>
+        <v>-1.785026501495173</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2210089259715504</v>
+        <v>0.2163089048753466</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.425385026441805</v>
       </c>
       <c r="E58" t="n">
-        <v>1.479009080250457</v>
+        <v>1.452009930262786</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.780311527217317</v>
+        <v>-1.770159103884928</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2168047208985563</v>
+        <v>0.2118245243987609</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4694441107035178</v>
       </c>
       <c r="E59" t="n">
-        <v>1.468741753522212</v>
+        <v>1.440311820153279</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.742382388451334</v>
+        <v>-1.733649730366358</v>
       </c>
       <c r="G59" t="n">
-        <v>0.141747619099333</v>
+        <v>0.1378723840226907</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5086612340406855</v>
       </c>
       <c r="E60" t="n">
-        <v>1.505100021205137</v>
+        <v>1.473344185432895</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.775573729662202</v>
+        <v>-1.766024942662831</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1217575762588143</v>
+        <v>0.1176556824287047</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5429334456366328</v>
       </c>
       <c r="E61" t="n">
-        <v>1.50439013858143</v>
+        <v>1.471022507228977</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.794062945270561</v>
+        <v>-1.784396106837092</v>
       </c>
       <c r="G61" t="n">
-        <v>0.134968318743891</v>
+        <v>0.1300133065500364</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5729542692065583</v>
       </c>
       <c r="E62" t="n">
-        <v>1.517411998771951</v>
+        <v>1.481806112229008</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.83851088422741</v>
+        <v>-1.828230178336635</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04604568250512989</v>
+        <v>0.04249784340571815</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5999034868136952</v>
       </c>
       <c r="E63" t="n">
-        <v>1.505457323545672</v>
+        <v>1.4683639889331</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.797780778435073</v>
+        <v>-1.789117377191434</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01158410786337264</v>
+        <v>0.008256631440942984</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6244031110346115</v>
       </c>
       <c r="E64" t="n">
-        <v>1.508181950644643</v>
+        <v>1.469881343366034</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.825455969635342</v>
+        <v>-1.81664303657518</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.01865279945681357</v>
+        <v>-0.02199601607045623</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6452730822427055</v>
       </c>
       <c r="E65" t="n">
-        <v>1.520846508494629</v>
+        <v>1.480103023539761</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.850932256123154</v>
+        <v>-1.842112239976946</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02155529071649204</v>
+        <v>-0.0251220180453594</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6617463302553658</v>
       </c>
       <c r="E66" t="n">
-        <v>1.483572161683107</v>
+        <v>1.443642444613951</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.855370990045222</v>
+        <v>-1.8473812689855</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02999360722578503</v>
+        <v>-0.03347061546473825</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6742687289359988</v>
       </c>
       <c r="E67" t="n">
-        <v>1.450426467026757</v>
+        <v>1.409210776335499</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.866359217531022</v>
+        <v>-1.85916831117536</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.04906127486122156</v>
+        <v>-0.05253356104281088</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6833051700945584</v>
       </c>
       <c r="E68" t="n">
-        <v>1.400761441692357</v>
+        <v>1.359139654067803</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.895548615125983</v>
+        <v>-1.889072313451391</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0560105692817641</v>
+        <v>-0.05976932694343014</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6890039381951535</v>
       </c>
       <c r="E69" t="n">
-        <v>1.294999948893921</v>
+        <v>1.255307908712082</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.916679821829445</v>
+        <v>-1.910480547520202</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07851432065900003</v>
+        <v>-0.08207475191138219</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6902477444733731</v>
       </c>
       <c r="E70" t="n">
-        <v>1.313661519596062</v>
+        <v>1.271896496231469</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.920186736431703</v>
+        <v>-1.915629951075537</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.04649562369350144</v>
+        <v>-0.05086667479335345</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6845306559880022</v>
       </c>
       <c r="E71" t="n">
-        <v>1.306636672257697</v>
+        <v>1.264723691095702</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.953718065772771</v>
+        <v>-1.950027777942882</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06568291678215682</v>
+        <v>-0.07054191380961206</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6692094050572025</v>
       </c>
       <c r="E72" t="n">
-        <v>1.291011384440545</v>
+        <v>1.248415278979906</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.98259029851479</v>
+        <v>-1.979422585033172</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1014131508356824</v>
+        <v>-0.1055843015071293</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6428808910331669</v>
       </c>
       <c r="E73" t="n">
-        <v>1.296566097919615</v>
+        <v>1.253277424045604</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.981972496009679</v>
+        <v>-1.979160510849475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08837712447307014</v>
+        <v>-0.09289928140856701</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6056048795862121</v>
       </c>
       <c r="E74" t="n">
-        <v>1.292382355095198</v>
+        <v>1.247944647262637</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.989134283011597</v>
+        <v>-1.987143148823152</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.06842485809146262</v>
+        <v>-0.07377494908476366</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5590625137191491</v>
       </c>
       <c r="E75" t="n">
-        <v>1.235372956540808</v>
+        <v>1.192273164961353</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.021820364084527</v>
+        <v>-2.019876450469721</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.03987844730755335</v>
+        <v>-0.04578259303155223</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5057339879212444</v>
       </c>
       <c r="E76" t="n">
-        <v>1.271339293462529</v>
+        <v>1.22777516624229</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.02409875676261</v>
+        <v>-2.023184251653134</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01932333160248767</v>
+        <v>-0.02587125114709853</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4484372384774179</v>
       </c>
       <c r="E77" t="n">
-        <v>1.204657547407747</v>
+        <v>1.162514759454042</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.021322187032636</v>
+        <v>-2.020668182087735</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.021445109378001</v>
+        <v>-0.02750193495676604</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3906204228589767</v>
       </c>
       <c r="E78" t="n">
-        <v>1.223541054805991</v>
+        <v>1.18223721904394</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.031682380889037</v>
+        <v>-2.031277857974862</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.01609659240382126</v>
+        <v>-0.02231081989471637</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3348510878416057</v>
       </c>
       <c r="E79" t="n">
-        <v>1.208063724786241</v>
+        <v>1.168212708673151</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.008489209136671</v>
+        <v>-2.008155517082955</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.03843192373507802</v>
+        <v>-0.04396932300381384</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2829369707524874</v>
       </c>
       <c r="E80" t="n">
-        <v>1.183521618646921</v>
+        <v>1.147056317663748</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.970449889032198</v>
+        <v>-1.970064254347479</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02200703420430534</v>
+        <v>-0.02765933686889611</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2357073525244203</v>
       </c>
       <c r="E81" t="n">
-        <v>1.205809729404539</v>
+        <v>1.171647218395829</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.923118347045125</v>
+        <v>-1.923310377377924</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.002245224136375205</v>
+        <v>-0.007834566036113948</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1940046355595847</v>
       </c>
       <c r="E82" t="n">
-        <v>1.263952421726265</v>
+        <v>1.230383315926285</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.953214379653955</v>
+        <v>-1.951561659576589</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02595805047909052</v>
+        <v>0.01993427930187279</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1582840551983371</v>
       </c>
       <c r="E83" t="n">
-        <v>1.348940010161774</v>
+        <v>1.31716843419832</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.847955785964775</v>
+        <v>-1.846828788273923</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01737649822975917</v>
+        <v>0.01238213555787209</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1281533388854037</v>
       </c>
       <c r="E84" t="n">
-        <v>1.33875768046608</v>
+        <v>1.311264288474321</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.788054914284556</v>
+        <v>-1.785999245312137</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02748957108411609</v>
+        <v>0.02286352888661337</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.101732895178291</v>
       </c>
       <c r="E85" t="n">
-        <v>1.445244796079435</v>
+        <v>1.420104562674021</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.762180400959054</v>
+        <v>-1.758124940693023</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02049148207081323</v>
+        <v>0.01662569110889874</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.07771916499009178</v>
       </c>
       <c r="E86" t="n">
-        <v>1.68975922245877</v>
+        <v>1.665103786942716</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.658418699454231</v>
+        <v>-1.653712382281542</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03578779989161331</v>
+        <v>0.03248078571776057</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.05554682901321326</v>
       </c>
       <c r="E87" t="n">
-        <v>1.616786121976148</v>
+        <v>1.599111461263063</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.539788813329602</v>
+        <v>-1.533945267341773</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05630513913776778</v>
+        <v>0.05329404055871956</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03594809881078777</v>
       </c>
       <c r="E88" t="n">
-        <v>1.76309434733929</v>
+        <v>1.746467983360991</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.339303636820851</v>
+        <v>-1.334129048959575</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09287117734470406</v>
+        <v>0.08996868608502559</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.0212384258795989</v>
       </c>
       <c r="E89" t="n">
-        <v>1.928906243634468</v>
+        <v>1.913798808108224</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.16360139137698</v>
+        <v>-1.159139834177653</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1165145185657617</v>
+        <v>0.1136812841474204</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.01355371273022425</v>
       </c>
       <c r="E90" t="n">
-        <v>1.945905650144516</v>
+        <v>1.93459632275797</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.922365646827315</v>
+        <v>-0.9188012805271296</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1454245277666914</v>
+        <v>0.1425125923922851</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.01509725843757928</v>
       </c>
       <c r="E91" t="n">
-        <v>1.983033613177756</v>
+        <v>1.97293313247637</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6698575643404554</v>
+        <v>-0.6667016560022475</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0968502976833522</v>
+        <v>0.09554700985091523</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02831753083996769</v>
       </c>
       <c r="E92" t="n">
-        <v>1.998813154868796</v>
+        <v>1.988667027612891</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.464596026808118</v>
+        <v>-0.4614070640683627</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1084760029132791</v>
+        <v>0.106810690682943</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05211451472562403</v>
       </c>
       <c r="E93" t="n">
-        <v>1.971938352391708</v>
+        <v>1.962069252501152</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2429615423760107</v>
+        <v>-0.2407264352237637</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09328829241184874</v>
+        <v>0.09195509821610706</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08058438077116643</v>
       </c>
       <c r="E94" t="n">
-        <v>1.858221766954218</v>
+        <v>1.849396241741085</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05977719703903665</v>
+        <v>-0.05764912318703812</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06785529144987222</v>
+        <v>0.06667792514713931</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1060980672610649</v>
       </c>
       <c r="E95" t="n">
-        <v>1.806044607102222</v>
+        <v>1.798097384558775</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07075463467130809</v>
+        <v>0.07354379655425292</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05595728091196032</v>
+        <v>0.05425419222271298</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1231368653374593</v>
       </c>
       <c r="E96" t="n">
-        <v>1.677167069488364</v>
+        <v>1.670016300620295</v>
       </c>
       <c r="F96" t="n">
-        <v>0.143820602282086</v>
+        <v>0.1467089273696728</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.004346539663311623</v>
+        <v>-0.005289377116970736</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1300847189196762</v>
       </c>
       <c r="E97" t="n">
-        <v>1.508742301451827</v>
+        <v>1.504273661166454</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1463169966084689</v>
+        <v>0.1507588785687795</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01946027126604083</v>
+        <v>-0.02051643809643359</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1312513014939761</v>
       </c>
       <c r="E98" t="n">
-        <v>1.394279630950841</v>
+        <v>1.390657812952728</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1749090539468959</v>
+        <v>0.1788126213677216</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05722256400516563</v>
+        <v>-0.05866121748203446</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1317708302160557</v>
       </c>
       <c r="E99" t="n">
-        <v>1.252806792328335</v>
+        <v>1.250960467899049</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1776887717151129</v>
+        <v>0.1818158498511633</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09744977068824731</v>
+        <v>-0.09832177728144789</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1396398105407728</v>
       </c>
       <c r="E100" t="n">
-        <v>1.09229934047194</v>
+        <v>1.091776766123668</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2359085909737828</v>
+        <v>0.2378399124356187</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1454117073334006</v>
+        <v>-0.1455077224997999</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1552151054214217</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9073001510881059</v>
+        <v>0.9099397811545272</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2174721050059878</v>
+        <v>0.2198960944527909</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1710351646090545</v>
+        <v>-0.1712382130757023</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1834066890630032</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8485483133664364</v>
+        <v>0.8500703898567342</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2567958247134429</v>
+        <v>0.2580991125458799</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2093074395434807</v>
+        <v>-0.2092539228933565</v>
       </c>
     </row>
   </sheetData>
